--- a/db_pembayaran2.xlsx
+++ b/db_pembayaran2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pembayaran2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258CD43D-FECC-4227-A7C1-0FEA4C383B83}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34A35BA-B842-4AD3-8B6B-00F97EC9A5AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t00_tahunajaran" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -611,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -695,14 +695,14 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
+      <c r="C7" s="1">
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>2018</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
+      <c r="E7" s="1">
+        <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>2019</v>
@@ -712,14 +712,14 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
+      <c r="C8" s="1">
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>2019</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
+      <c r="E8" s="1">
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <v>2020</v>
@@ -738,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/db_pembayaran2.xlsx
+++ b/db_pembayaran2.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pembayaran2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34A35BA-B842-4AD3-8B6B-00F97EC9A5AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B7E2EA-7F9D-4CE8-A6F0-BD258CF4B9BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t00_tahunajaran" sheetId="1" r:id="rId1"/>
     <sheet name="t01_sekolah" sheetId="2" r:id="rId2"/>
     <sheet name="t02_kelas" sheetId="3" r:id="rId3"/>
     <sheet name="t03_siswa" sheetId="4" r:id="rId4"/>
-    <sheet name="t04_pmbrutin" sheetId="5" r:id="rId5"/>
-    <sheet name="t05_siswapmbrutin" sheetId="7" r:id="rId6"/>
-    <sheet name="t06_siswapmbrutinbayar" sheetId="8" r:id="rId7"/>
+    <sheet name="t04_rutin" sheetId="5" r:id="rId5"/>
+    <sheet name="t05_siswarutin" sheetId="7" r:id="rId6"/>
+    <sheet name="t06_siswarutinbayar" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -51,12 +51,6 @@
     <t>awal_tahun</t>
   </si>
   <si>
-    <t>Juli</t>
-  </si>
-  <si>
-    <t>Juni</t>
-  </si>
-  <si>
     <t>t01_sekolah</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>tahunajaran_id</t>
   </si>
   <si>
-    <t>t04_pmbrutin</t>
-  </si>
-  <si>
     <t>INFAQ</t>
   </si>
   <si>
@@ -162,21 +153,12 @@
     <t>BEASISWA INFAQ</t>
   </si>
   <si>
-    <t>t05_siswapmbrutin</t>
-  </si>
-  <si>
     <t>siswa_id</t>
   </si>
   <si>
-    <t>pmbrutin_id</t>
-  </si>
-  <si>
     <t>nilai</t>
   </si>
   <si>
-    <t>t06_siswapmbrutinbayar</t>
-  </si>
-  <si>
     <t>bulan</t>
   </si>
   <si>
@@ -189,37 +171,19 @@
     <t>bayar_jumlah</t>
   </si>
   <si>
-    <t>Agustus</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Oktober</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>Desember</t>
-  </si>
-  <si>
-    <t>Januari</t>
-  </si>
-  <si>
-    <t>Februari</t>
-  </si>
-  <si>
-    <t>Maret</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Mei</t>
-  </si>
-  <si>
-    <t>siswapmbrutin_id</t>
+    <t>t04_rutin</t>
+  </si>
+  <si>
+    <t>t05_siswarutin</t>
+  </si>
+  <si>
+    <t>rutin_id</t>
+  </si>
+  <si>
+    <t>t06_siswarutinbayar</t>
+  </si>
+  <si>
+    <t>siswarutin_id</t>
   </si>
 </sst>
 </file>
@@ -289,12 +253,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -611,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -647,47 +608,47 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -738,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -770,57 +731,57 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -864,110 +825,110 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1019,48 +980,48 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1071,15 +1032,15 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1090,15 +1051,15 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1109,15 +1070,15 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -1128,15 +1089,15 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>33</v>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1147,15 +1108,15 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -1166,15 +1127,15 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>35</v>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1214,33 +1175,33 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1248,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -1256,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -1264,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -1272,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1300,8 +1261,8 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1315,48 +1276,48 @@
       <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1367,11 +1328,11 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D7" s="4">
-        <f>t04_pmbrutin!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="3">
+        <f>t04_rutin!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
         <v>100000</v>
       </c>
     </row>
@@ -1383,11 +1344,11 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D8" s="4">
-        <f>t04_pmbrutin!$B$8</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="3">
+        <f>t04_rutin!$B$8</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
         <v>125000</v>
       </c>
     </row>
@@ -1399,11 +1360,11 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D9" s="4">
-        <f>t04_pmbrutin!$B$9</f>
-        <v>3</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="3">
+        <f>t04_rutin!$B$9</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="10">
         <v>150000</v>
       </c>
     </row>
@@ -1415,11 +1376,11 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D10" s="4">
-        <f>t04_pmbrutin!$B$10</f>
-        <v>4</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="3">
+        <f>t04_rutin!$B$10</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="10">
         <v>175000</v>
       </c>
     </row>
@@ -1431,11 +1392,11 @@
         <f>t03_siswa!$B$8</f>
         <v>2</v>
       </c>
-      <c r="D11" s="4">
-        <f>t04_pmbrutin!$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="3">
+        <f>t04_rutin!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
         <v>200000</v>
       </c>
     </row>
@@ -1447,11 +1408,11 @@
         <f>t03_siswa!$B$8</f>
         <v>2</v>
       </c>
-      <c r="D12" s="4">
-        <f>t04_pmbrutin!$B$8</f>
-        <v>2</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="3">
+        <f>t04_rutin!$B$8</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
         <v>225000</v>
       </c>
     </row>
@@ -1463,11 +1424,11 @@
         <f>t03_siswa!$B$8</f>
         <v>2</v>
       </c>
-      <c r="D13" s="4">
-        <f>t04_pmbrutin!$B$9</f>
-        <v>3</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="3">
+        <f>t04_rutin!$B$9</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
         <v>250000</v>
       </c>
     </row>
@@ -1479,11 +1440,11 @@
         <f>t03_siswa!$B$8</f>
         <v>2</v>
       </c>
-      <c r="D14" s="4">
-        <f>t04_pmbrutin!$B$10</f>
-        <v>4</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14" s="3">
+        <f>t04_rutin!$B$10</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="7">
         <v>275000</v>
       </c>
     </row>
@@ -1498,7 +1459,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210D7E6C-7B69-434B-86D3-D42FDE4C39EC}">
-  <dimension ref="B2:I18"/>
+  <dimension ref="B2:I54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -1511,8 +1472,8 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1540,45 +1501,45 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>51</v>
+      <c r="D6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1589,8 +1550,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
+      <c r="D7" s="1">
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <v>2018</v>
@@ -1604,8 +1565,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
+      <c r="D8" s="1">
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>2018</v>
@@ -1619,8 +1580,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
+      <c r="D9" s="1">
+        <v>9</v>
       </c>
       <c r="E9" s="1">
         <v>2018</v>
@@ -1634,8 +1595,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>54</v>
+      <c r="D10" s="1">
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <v>2018</v>
@@ -1649,8 +1610,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
+      <c r="D11" s="1">
+        <v>11</v>
       </c>
       <c r="E11" s="1">
         <v>2018</v>
@@ -1664,8 +1625,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
+      <c r="D12" s="1">
+        <v>12</v>
       </c>
       <c r="E12" s="1">
         <v>2018</v>
@@ -1679,8 +1640,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>57</v>
+      <c r="D13" s="1">
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>2019</v>
@@ -1694,8 +1655,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
+      <c r="D14" s="1">
+        <v>2</v>
       </c>
       <c r="E14" s="1">
         <v>2019</v>
@@ -1709,8 +1670,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
+      <c r="D15" s="1">
+        <v>3</v>
       </c>
       <c r="E15" s="1">
         <v>2019</v>
@@ -1724,8 +1685,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>60</v>
+      <c r="D16" s="1">
+        <v>4</v>
       </c>
       <c r="E16" s="1">
         <v>2019</v>
@@ -1739,8 +1700,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
+      <c r="D17" s="1">
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <v>2019</v>
@@ -1754,14 +1715,521 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
         <v>7</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>38</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>39</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>40</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>41</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>42</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>43</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>45</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>47</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>48</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/db_pembayaran2.xlsx
+++ b/db_pembayaran2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pembayaran2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B7E2EA-7F9D-4CE8-A6F0-BD258CF4B9BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7408B6E9-7EA5-48DA-8377-BD941FC66CB2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="820" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t00_tahunajaran" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -54,15 +54,6 @@
     <t>t01_sekolah</t>
   </si>
   <si>
-    <t>nomor_induk</t>
-  </si>
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>alamat</t>
-  </si>
-  <si>
     <t>0001</t>
   </si>
   <si>
@@ -156,21 +147,6 @@
     <t>siswa_id</t>
   </si>
   <si>
-    <t>nilai</t>
-  </si>
-  <si>
-    <t>bulan</t>
-  </si>
-  <si>
-    <t>tahun</t>
-  </si>
-  <si>
-    <t>bayar_tgl</t>
-  </si>
-  <si>
-    <t>bayar_jumlah</t>
-  </si>
-  <si>
     <t>t04_rutin</t>
   </si>
   <si>
@@ -183,7 +159,28 @@
     <t>t06_siswarutinbayar</t>
   </si>
   <si>
-    <t>siswarutin_id</t>
+    <t>Nomor_Induk</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Nilai</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Bayar_Tgl</t>
+  </si>
+  <si>
+    <t>Bayar_Jumlah</t>
   </si>
 </sst>
 </file>
@@ -572,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -710,7 +707,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
@@ -761,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -775,13 +772,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +823,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -853,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -868,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -880,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -892,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -904,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -916,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -928,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -957,8 +954,8 @@
     <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -981,7 +978,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1012,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1037,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1056,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1075,10 +1072,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -1094,10 +1091,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1113,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -1132,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1173,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
@@ -1201,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1209,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -1217,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -1225,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -1233,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1279,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1311,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1459,9 +1456,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210D7E6C-7B69-434B-86D3-D42FDE4C39EC}">
-  <dimension ref="B2:I54"/>
+  <dimension ref="B2:M54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1472,47 +1469,55 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="K2" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1521,714 +1526,730 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="G7" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="H7" s="1">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="G8" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="H8" s="1">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="G9" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="H9" s="1">
         <v>9</v>
       </c>
-      <c r="E9" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
+      <c r="G10" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="H10" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
+      <c r="G11" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="H11" s="1">
         <v>11</v>
       </c>
-      <c r="E11" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
+      <c r="G12" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="H12" s="1">
         <v>12</v>
       </c>
-      <c r="E12" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
+      <c r="G13" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>8</v>
       </c>
-      <c r="C14" s="1">
+      <c r="G14" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>9</v>
       </c>
-      <c r="C15" s="1">
+      <c r="G15" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>10</v>
       </c>
-      <c r="C16" s="1">
+      <c r="G16" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>11</v>
       </c>
-      <c r="C17" s="1">
+      <c r="G17" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="H17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="C18" s="1">
+      <c r="G18" s="1">
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="H18" s="1">
         <v>6</v>
       </c>
-      <c r="E18" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>13</v>
       </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
         <v>7</v>
       </c>
-      <c r="E19" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>14</v>
       </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
         <v>8</v>
       </c>
-      <c r="E20" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
         <v>9</v>
       </c>
-      <c r="E21" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>16</v>
       </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
         <v>10</v>
       </c>
-      <c r="E22" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>17</v>
       </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
         <v>11</v>
       </c>
-      <c r="E23" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>18</v>
       </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
         <v>12</v>
       </c>
-      <c r="E24" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>19</v>
       </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>20</v>
       </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>21</v>
       </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>22</v>
       </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>23</v>
       </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
         <v>5</v>
       </c>
-      <c r="E29" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>24</v>
       </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
         <v>6</v>
       </c>
-      <c r="E30" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>25</v>
       </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
         <v>7</v>
       </c>
-      <c r="E31" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>26</v>
       </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
         <v>8</v>
       </c>
-      <c r="E32" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>27</v>
       </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
         <v>9</v>
       </c>
-      <c r="E33" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>28</v>
       </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
         <v>10</v>
       </c>
-      <c r="E34" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>29</v>
       </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
         <v>11</v>
       </c>
-      <c r="E35" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>30</v>
       </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
         <v>12</v>
       </c>
-      <c r="E36" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>31</v>
       </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>32</v>
       </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>33</v>
       </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>34</v>
       </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>35</v>
       </c>
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
         <v>5</v>
       </c>
-      <c r="E41" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>36</v>
       </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
         <v>6</v>
       </c>
-      <c r="E42" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>37</v>
       </c>
-      <c r="C43" s="1">
-        <v>4</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
         <v>7</v>
       </c>
-      <c r="E43" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>38</v>
       </c>
-      <c r="C44" s="1">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1">
         <v>8</v>
       </c>
-      <c r="E44" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I44" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>39</v>
       </c>
-      <c r="C45" s="1">
-        <v>4</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="G45" s="1">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1">
         <v>9</v>
       </c>
-      <c r="E45" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>40</v>
       </c>
-      <c r="C46" s="1">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="G46" s="1">
+        <v>4</v>
+      </c>
+      <c r="H46" s="1">
         <v>10</v>
       </c>
-      <c r="E46" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>41</v>
       </c>
-      <c r="C47" s="1">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="G47" s="1">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1">
         <v>11</v>
       </c>
-      <c r="E47" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>42</v>
       </c>
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="G48" s="1">
+        <v>4</v>
+      </c>
+      <c r="H48" s="1">
         <v>12</v>
       </c>
-      <c r="E48" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>43</v>
       </c>
-      <c r="C49" s="1">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <v>4</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>44</v>
       </c>
-      <c r="C50" s="1">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <v>4</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>45</v>
       </c>
-      <c r="C51" s="1">
-        <v>4</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>46</v>
       </c>
-      <c r="C52" s="1">
-        <v>4</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4</v>
-      </c>
-      <c r="E52" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1">
+        <v>4</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>47</v>
       </c>
-      <c r="C53" s="1">
-        <v>4</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1">
         <v>5</v>
       </c>
-      <c r="E53" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I53" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>48</v>
       </c>
-      <c r="C54" s="1">
-        <v>4</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="G54" s="1">
+        <v>4</v>
+      </c>
+      <c r="H54" s="1">
         <v>6</v>
       </c>
-      <c r="E54" s="1">
+      <c r="I54" s="1">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
